--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_2_bus_isolated.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_2_bus_isolated.xlsx
@@ -749,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9380319009574474</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.053494350468706</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.98965116739713</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.13019952201597</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.5693903185486</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -808,22 +808,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526302265250914</v>
+        <v>1.031611214669992</v>
       </c>
       <c r="O3">
-        <v>5.603192722321237E-06</v>
+        <v>0.2917056037513001</v>
       </c>
       <c r="P3">
-        <v>0.9526265841841453</v>
+        <v>0.8906876332644402</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370833693112658</v>
+        <v>7.091324389062836</v>
       </c>
       <c r="R3">
-        <v>130.5451678353872</v>
+        <v>-119.1713773550786</v>
       </c>
       <c r="S3">
-        <v>-179.9998809963927</v>
+        <v>171.7794727726613</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -834,55 +834,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.709154423937026</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.709154423937026</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.82962610251867</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.82962610251867</v>
       </c>
       <c r="H4">
-        <v>0.5195952951908112</v>
+        <v>0.5201306245498729</v>
       </c>
       <c r="I4">
-        <v>-582.9910092317234</v>
+        <v>-582.9923205025926</v>
       </c>
       <c r="J4">
-        <v>9090849404.73571</v>
+        <v>0.6277319163874261</v>
       </c>
       <c r="K4">
-        <v>-72024.60035756232</v>
+        <v>2.898438698005111</v>
       </c>
       <c r="L4">
-        <v>9090896116.666706</v>
+        <v>0.6277319163592477</v>
       </c>
       <c r="M4">
-        <v>-46557.7635422349</v>
+        <v>2.898438697967479</v>
       </c>
       <c r="N4">
-        <v>0.9526302265340152</v>
+        <v>0.9526279648032087</v>
       </c>
       <c r="O4">
-        <v>5.603216277056618E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526265841752213</v>
+        <v>0.9526279648047569</v>
       </c>
       <c r="Q4">
-        <v>-0.0001370838423364236</v>
+        <v>-1.210835655542595E-11</v>
       </c>
       <c r="R4">
-        <v>130.5452019597754</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9998809959197</v>
+        <v>-179.9999999999815</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -926,22 +926,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526302265250912</v>
+        <v>0.9526279647942846</v>
       </c>
       <c r="O5">
-        <v>5.603192722237902E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526265841841453</v>
+        <v>0.9526279648136806</v>
       </c>
       <c r="Q5">
-        <v>-0.0001370833693041797</v>
+        <v>4.609303720185732E-10</v>
       </c>
       <c r="R5">
-        <v>130.5451678343911</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998809963927</v>
+        <v>179.9999999995309</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302265250912</v>
+        <v>0.9526279647942846</v>
       </c>
       <c r="O6">
-        <v>5.603192722196235E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526265841841453</v>
+        <v>0.9526279648136806</v>
       </c>
       <c r="Q6">
-        <v>-0.0001370833693048438</v>
+        <v>4.609315836009887E-10</v>
       </c>
       <c r="R6">
-        <v>130.545167833893</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9998809963927</v>
+        <v>179.9999999995309</v>
       </c>
     </row>
   </sheetData>
@@ -1116,22 +1116,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.029837663667628</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>27.98323699101547</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.78162348160743</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.95263022637384</v>
+        <v>1.109634423210917</v>
       </c>
       <c r="O3">
-        <v>5.602766213103579E-06</v>
+        <v>0.7617779018710722</v>
       </c>
       <c r="P3">
-        <v>0.9526265843353973</v>
+        <v>0.9348070984869534</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370742724564369</v>
+        <v>19.43181595267042</v>
       </c>
       <c r="R3">
-        <v>130.5448279989096</v>
+        <v>-104.256590866502</v>
       </c>
       <c r="S3">
-        <v>-179.9998810054897</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1201,55 +1201,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.763086650675496</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.763086650675496</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20.35837104744267</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>20.35837104744267</v>
       </c>
       <c r="H4">
-        <v>0.5195952951908112</v>
+        <v>0.5201306245498729</v>
       </c>
       <c r="I4">
-        <v>-582.9910092317234</v>
+        <v>-582.9923205025926</v>
       </c>
       <c r="J4">
-        <v>9090849404.73571</v>
+        <v>0.6277319163874261</v>
       </c>
       <c r="K4">
-        <v>-72024.60035756232</v>
+        <v>2.898438698005111</v>
       </c>
       <c r="L4">
-        <v>9090896116.666706</v>
+        <v>0.6277319163592477</v>
       </c>
       <c r="M4">
-        <v>-46557.7635422349</v>
+        <v>2.898438697967479</v>
       </c>
       <c r="N4">
-        <v>0.9526302263827638</v>
+        <v>1.075852895209831</v>
       </c>
       <c r="O4">
-        <v>5.602789767909541E-06</v>
+        <v>0.6233452632551819</v>
       </c>
       <c r="P4">
-        <v>0.9526265843264735</v>
+        <v>0.922941106001155</v>
       </c>
       <c r="Q4">
-        <v>-0.000137074745481595</v>
+        <v>16.25665454943082</v>
       </c>
       <c r="R4">
-        <v>130.5448621273962</v>
+        <v>-104.9129785376841</v>
       </c>
       <c r="S4">
-        <v>-179.9998810050166</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526302263738399</v>
+        <v>1.075852895205486</v>
       </c>
       <c r="O5">
-        <v>5.602766213110621E-06</v>
+        <v>0.6233452632568751</v>
       </c>
       <c r="P5">
-        <v>0.9526265843353973</v>
+        <v>0.9229411060067919</v>
       </c>
       <c r="Q5">
-        <v>-0.00013707427244935</v>
+        <v>16.25665454962349</v>
       </c>
       <c r="R5">
-        <v>130.5448279979854</v>
+        <v>-104.9129785366564</v>
       </c>
       <c r="S5">
-        <v>-179.9998810054896</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1352,22 +1352,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302263738399</v>
+        <v>1.075852895205486</v>
       </c>
       <c r="O6">
-        <v>5.602766212978579E-06</v>
+        <v>0.6233452632568751</v>
       </c>
       <c r="P6">
-        <v>0.9526265843353975</v>
+        <v>0.9229411060067919</v>
       </c>
       <c r="Q6">
-        <v>-0.0001370742724461591</v>
+        <v>16.25665454962349</v>
       </c>
       <c r="R6">
-        <v>130.5448279974153</v>
+        <v>-104.9129785366564</v>
       </c>
       <c r="S6">
-        <v>-179.9998810054896</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
   </sheetData>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.029837663667628</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>27.98323699101547</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.78162348160743</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1542,22 +1542,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.95263022637384</v>
+        <v>1.109634423210917</v>
       </c>
       <c r="O3">
-        <v>5.602766213103579E-06</v>
+        <v>0.7617779018710722</v>
       </c>
       <c r="P3">
-        <v>0.9526265843353973</v>
+        <v>0.9348070984869534</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370742724564369</v>
+        <v>19.43181595267042</v>
       </c>
       <c r="R3">
-        <v>130.5448279989096</v>
+        <v>-104.256590866502</v>
       </c>
       <c r="S3">
-        <v>-179.9998810054897</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1568,55 +1568,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.763086650675496</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.763086650675496</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20.35837104744267</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>20.35837104744267</v>
       </c>
       <c r="H4">
-        <v>0.5195952951908112</v>
+        <v>0.5201306245498729</v>
       </c>
       <c r="I4">
-        <v>-582.9910092317234</v>
+        <v>-582.9923205025926</v>
       </c>
       <c r="J4">
-        <v>9090849404.73571</v>
+        <v>0.6277319163874261</v>
       </c>
       <c r="K4">
-        <v>-72024.60035756232</v>
+        <v>2.898438698005111</v>
       </c>
       <c r="L4">
-        <v>9090896116.666706</v>
+        <v>0.6277319163592477</v>
       </c>
       <c r="M4">
-        <v>-46557.7635422349</v>
+        <v>2.898438697967479</v>
       </c>
       <c r="N4">
-        <v>0.9526302263827638</v>
+        <v>1.075852895209831</v>
       </c>
       <c r="O4">
-        <v>5.602789767909541E-06</v>
+        <v>0.6233452632551819</v>
       </c>
       <c r="P4">
-        <v>0.9526265843264735</v>
+        <v>0.922941106001155</v>
       </c>
       <c r="Q4">
-        <v>-0.000137074745481595</v>
+        <v>16.25665454943082</v>
       </c>
       <c r="R4">
-        <v>130.5448621273962</v>
+        <v>-104.9129785376841</v>
       </c>
       <c r="S4">
-        <v>-179.9998810050166</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526302263738399</v>
+        <v>1.075852895205486</v>
       </c>
       <c r="O5">
-        <v>5.602766213110621E-06</v>
+        <v>0.6233452632568751</v>
       </c>
       <c r="P5">
-        <v>0.9526265843353973</v>
+        <v>0.9229411060067919</v>
       </c>
       <c r="Q5">
-        <v>-0.00013707427244935</v>
+        <v>16.25665454962349</v>
       </c>
       <c r="R5">
-        <v>130.5448279979854</v>
+        <v>-104.9129785366564</v>
       </c>
       <c r="S5">
-        <v>-179.9998810054896</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1719,22 +1719,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302263738399</v>
+        <v>1.075852895205486</v>
       </c>
       <c r="O6">
-        <v>5.602766212978579E-06</v>
+        <v>0.6233452632568751</v>
       </c>
       <c r="P6">
-        <v>0.9526265843353975</v>
+        <v>0.9229411060067919</v>
       </c>
       <c r="Q6">
-        <v>-0.0001370742724461591</v>
+        <v>16.25665454962349</v>
       </c>
       <c r="R6">
-        <v>130.5448279974153</v>
+        <v>-104.9129785366564</v>
       </c>
       <c r="S6">
-        <v>-179.9998810054896</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
   </sheetData>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8500049525414016</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9468598309457215</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>25.60992326808851</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.65381631331515</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1909,22 +1909,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660249772782536</v>
+        <v>0.9900703401370794</v>
       </c>
       <c r="O3">
-        <v>1.492001416815199E-06</v>
+        <v>0.3617201835030108</v>
       </c>
       <c r="P3">
-        <v>0.8660262473999455</v>
+        <v>0.7649715466411101</v>
       </c>
       <c r="Q3">
-        <v>-6.992561451719476E-05</v>
+        <v>8.150888684274397</v>
       </c>
       <c r="R3">
-        <v>-31.64814746994242</v>
+        <v>-129.0915432241898</v>
       </c>
       <c r="S3">
-        <v>179.9998782812406</v>
+        <v>169.4262793833646</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1935,55 +1935,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.119085825515538</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.119085825515538</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>36.01610081973884</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>36.01610081973884</v>
       </c>
       <c r="H4">
-        <v>0.9993312880396843</v>
+        <v>0.9984001188115509</v>
       </c>
       <c r="I4">
-        <v>-582.9928716445842</v>
+        <v>-582.9931656508213</v>
       </c>
       <c r="J4">
-        <v>9090956116.175537</v>
+        <v>1.113751880275154</v>
       </c>
       <c r="K4">
-        <v>-8046.034862846138</v>
+        <v>3.006397543825887</v>
       </c>
       <c r="L4">
-        <v>9090964257.421612</v>
+        <v>1.113751880229052</v>
       </c>
       <c r="M4">
-        <v>13743.02830025554</v>
+        <v>3.006397543752753</v>
       </c>
       <c r="N4">
-        <v>0.866024977286366</v>
+        <v>0.8660254037880054</v>
       </c>
       <c r="O4">
-        <v>1.49197319873097E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660262473918331</v>
+        <v>0.866025403788333</v>
       </c>
       <c r="Q4">
-        <v>-6.992652275260044E-05</v>
+        <v>1.722240752172886E-10</v>
       </c>
       <c r="R4">
-        <v>-31.64757682778233</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9998782821488</v>
+        <v>179.9999999998196</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660249772782533</v>
+        <v>0.8660254037798929</v>
       </c>
       <c r="O5">
-        <v>1.492001417046163E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660262473999457</v>
+        <v>0.8660254037964457</v>
       </c>
       <c r="Q5">
-        <v>-6.99256145194438E-05</v>
+        <v>1.080468677981598E-09</v>
       </c>
       <c r="R5">
-        <v>-31.64814747025865</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9998782812406</v>
+        <v>179.9999999989113</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249772782533</v>
+        <v>0.8660254037798928</v>
       </c>
       <c r="O6">
-        <v>1.492001416985247E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660262473999457</v>
+        <v>0.8660254037964455</v>
       </c>
       <c r="Q6">
-        <v>-6.992561451684318E-05</v>
+        <v>1.080461718820719E-09</v>
       </c>
       <c r="R6">
-        <v>-31.64814746880898</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9998782812406</v>
+        <v>179.9999999989113</v>
       </c>
     </row>
   </sheetData>
@@ -2217,22 +2217,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8500049525414016</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9468598309457215</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>25.60992326808851</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.65381631331515</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2276,22 +2276,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660249772782536</v>
+        <v>0.9900703401370794</v>
       </c>
       <c r="O3">
-        <v>1.492001416815199E-06</v>
+        <v>0.3617201835030108</v>
       </c>
       <c r="P3">
-        <v>0.8660262473999455</v>
+        <v>0.7649715466411101</v>
       </c>
       <c r="Q3">
-        <v>-6.992561451719476E-05</v>
+        <v>8.150888684274397</v>
       </c>
       <c r="R3">
-        <v>-31.64814746994242</v>
+        <v>-129.0915432241898</v>
       </c>
       <c r="S3">
-        <v>179.9998782812406</v>
+        <v>169.4262793833646</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2302,55 +2302,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.119085825515538</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.119085825515538</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>36.01610081973884</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>36.01610081973884</v>
       </c>
       <c r="H4">
-        <v>0.9993312880396843</v>
+        <v>0.9984001188115509</v>
       </c>
       <c r="I4">
-        <v>-582.9928716445842</v>
+        <v>-582.9931656508213</v>
       </c>
       <c r="J4">
-        <v>9090956116.175537</v>
+        <v>1.113751880275154</v>
       </c>
       <c r="K4">
-        <v>-8046.034862846138</v>
+        <v>3.006397543825887</v>
       </c>
       <c r="L4">
-        <v>9090964257.421612</v>
+        <v>1.113751880229052</v>
       </c>
       <c r="M4">
-        <v>13743.02830025554</v>
+        <v>3.006397543752753</v>
       </c>
       <c r="N4">
-        <v>0.866024977286366</v>
+        <v>0.8660254037880054</v>
       </c>
       <c r="O4">
-        <v>1.49197319873097E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660262473918331</v>
+        <v>0.866025403788333</v>
       </c>
       <c r="Q4">
-        <v>-6.992652275260044E-05</v>
+        <v>1.722240752172886E-10</v>
       </c>
       <c r="R4">
-        <v>-31.64757682778233</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9998782821488</v>
+        <v>179.9999999998196</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2394,22 +2394,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660249772782533</v>
+        <v>0.8660254037798929</v>
       </c>
       <c r="O5">
-        <v>1.492001417046163E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660262473999457</v>
+        <v>0.8660254037964457</v>
       </c>
       <c r="Q5">
-        <v>-6.99256145194438E-05</v>
+        <v>1.080468677981598E-09</v>
       </c>
       <c r="R5">
-        <v>-31.64814747025865</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9998782812406</v>
+        <v>179.9999999989113</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2453,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249772782533</v>
+        <v>0.8660254037798928</v>
       </c>
       <c r="O6">
-        <v>1.492001416985247E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660262473999457</v>
+        <v>0.8660254037964455</v>
       </c>
       <c r="Q6">
-        <v>-6.992561451684318E-05</v>
+        <v>1.080461718820719E-09</v>
       </c>
       <c r="R6">
-        <v>-31.64814746880898</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9998782812406</v>
+        <v>179.9999999989113</v>
       </c>
     </row>
   </sheetData>
@@ -2584,22 +2584,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9681777323222118</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.15705182751171</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2643,22 +2643,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660249771407541</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>1.492379814015525E-06</v>
+        <v>0.7086876959566593</v>
       </c>
       <c r="P3">
-        <v>0.8660262475374449</v>
+        <v>0.844932115994132</v>
       </c>
       <c r="Q3">
-        <v>-6.991651760536051E-05</v>
+        <v>19.61176266474867</v>
       </c>
       <c r="R3">
-        <v>-31.65159548636534</v>
+        <v>-105.2709110729077</v>
       </c>
       <c r="S3">
-        <v>179.9998782721438</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2669,55 +2669,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.518298439092606</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.518298439092606</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>17.53180025040609</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>17.53180025040609</v>
       </c>
       <c r="H4">
-        <v>0.9993312880396843</v>
+        <v>0.9984001188115509</v>
       </c>
       <c r="I4">
-        <v>-582.9928716445842</v>
+        <v>-582.9931656508213</v>
       </c>
       <c r="J4">
-        <v>9090956116.175537</v>
+        <v>1.113751880275154</v>
       </c>
       <c r="K4">
-        <v>-8046.034862846138</v>
+        <v>3.006397543825887</v>
       </c>
       <c r="L4">
-        <v>9090964257.421612</v>
+        <v>1.113751880229052</v>
       </c>
       <c r="M4">
-        <v>13743.02830025554</v>
+        <v>3.006397543752753</v>
       </c>
       <c r="N4">
-        <v>0.8660249771488665</v>
+        <v>0.9573399675119604</v>
       </c>
       <c r="O4">
-        <v>1.492351594997094E-06</v>
+        <v>0.5367995610775458</v>
       </c>
       <c r="P4">
-        <v>0.8660262475293325</v>
+        <v>0.8529812840863308</v>
       </c>
       <c r="Q4">
-        <v>-6.991742584500669E-05</v>
+        <v>15.93288697155593</v>
       </c>
       <c r="R4">
-        <v>-31.65102504925803</v>
+        <v>-101.7238138495564</v>
       </c>
       <c r="S4">
-        <v>179.999878273052</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660249771407539</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O5">
-        <v>1.492379814191926E-06</v>
+        <v>0.5367995610863938</v>
       </c>
       <c r="P5">
-        <v>0.8660262475374449</v>
+        <v>0.8529812840931507</v>
       </c>
       <c r="Q5">
-        <v>-6.991651760761023E-05</v>
+        <v>15.93288697196764</v>
       </c>
       <c r="R5">
-        <v>-31.65159548797232</v>
+        <v>-101.723813848195</v>
       </c>
       <c r="S5">
-        <v>179.9998782721438</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2820,22 +2820,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249771407539</v>
+        <v>0.9573399675083646</v>
       </c>
       <c r="O6">
-        <v>1.492379814198279E-06</v>
+        <v>0.5367995610863938</v>
       </c>
       <c r="P6">
-        <v>0.8660262475374449</v>
+        <v>0.8529812840931505</v>
       </c>
       <c r="Q6">
-        <v>-6.99165176092504E-05</v>
+        <v>15.93288697196764</v>
       </c>
       <c r="R6">
-        <v>-31.65159549071284</v>
+        <v>-101.723813848195</v>
       </c>
       <c r="S6">
-        <v>179.9998782721438</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -2951,22 +2951,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9681777323222118</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>27.82469744524451</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.15705182751171</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3010,22 +3010,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660249771407541</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>1.492379814015525E-06</v>
+        <v>0.7086876959566593</v>
       </c>
       <c r="P3">
-        <v>0.8660262475374449</v>
+        <v>0.844932115994132</v>
       </c>
       <c r="Q3">
-        <v>-6.991651760536051E-05</v>
+        <v>19.61176266474867</v>
       </c>
       <c r="R3">
-        <v>-31.65159548636534</v>
+        <v>-105.2709110729077</v>
       </c>
       <c r="S3">
-        <v>179.9998782721438</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3036,55 +3036,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.518298439092606</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.518298439092606</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>17.53180025040609</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>17.53180025040609</v>
       </c>
       <c r="H4">
-        <v>0.9993312880396843</v>
+        <v>0.9984001188115509</v>
       </c>
       <c r="I4">
-        <v>-582.9928716445842</v>
+        <v>-582.9931656508213</v>
       </c>
       <c r="J4">
-        <v>9090956116.175537</v>
+        <v>1.113751880275154</v>
       </c>
       <c r="K4">
-        <v>-8046.034862846138</v>
+        <v>3.006397543825887</v>
       </c>
       <c r="L4">
-        <v>9090964257.421612</v>
+        <v>1.113751880229052</v>
       </c>
       <c r="M4">
-        <v>13743.02830025554</v>
+        <v>3.006397543752753</v>
       </c>
       <c r="N4">
-        <v>0.8660249771488665</v>
+        <v>0.9573399675119604</v>
       </c>
       <c r="O4">
-        <v>1.492351594997094E-06</v>
+        <v>0.5367995610775458</v>
       </c>
       <c r="P4">
-        <v>0.8660262475293325</v>
+        <v>0.8529812840863308</v>
       </c>
       <c r="Q4">
-        <v>-6.991742584500669E-05</v>
+        <v>15.93288697155593</v>
       </c>
       <c r="R4">
-        <v>-31.65102504925803</v>
+        <v>-101.7238138495564</v>
       </c>
       <c r="S4">
-        <v>179.999878273052</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3128,22 +3128,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660249771407539</v>
+        <v>0.9573399675083647</v>
       </c>
       <c r="O5">
-        <v>1.492379814191926E-06</v>
+        <v>0.5367995610863938</v>
       </c>
       <c r="P5">
-        <v>0.8660262475374449</v>
+        <v>0.8529812840931507</v>
       </c>
       <c r="Q5">
-        <v>-6.991651760761023E-05</v>
+        <v>15.93288697196764</v>
       </c>
       <c r="R5">
-        <v>-31.65159548797232</v>
+        <v>-101.723813848195</v>
       </c>
       <c r="S5">
-        <v>179.9998782721438</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660249771407539</v>
+        <v>0.9573399675083646</v>
       </c>
       <c r="O6">
-        <v>1.492379814198279E-06</v>
+        <v>0.5367995610863938</v>
       </c>
       <c r="P6">
-        <v>0.8660262475374449</v>
+        <v>0.8529812840931505</v>
       </c>
       <c r="Q6">
-        <v>-6.99165176092504E-05</v>
+        <v>15.93288697196764</v>
       </c>
       <c r="R6">
-        <v>-31.65159549071284</v>
+        <v>-101.723813848195</v>
       </c>
       <c r="S6">
-        <v>179.9998782721438</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -3318,22 +3318,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.10117703878311</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101325831987042</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95570218484097</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0308689902517</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3377,22 +3377,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.550000872391962</v>
+        <v>1.106416246260832</v>
       </c>
       <c r="O3">
-        <v>1.10000180588494</v>
+        <v>1.100000023841801</v>
       </c>
       <c r="P3">
-        <v>0.5500009334929783</v>
+        <v>1.106793031689778</v>
       </c>
       <c r="Q3">
-        <v>89.99984898745149</v>
+        <v>29.78573240407062</v>
       </c>
       <c r="R3">
-        <v>-90.00015100648176</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S3">
-        <v>89.99984899957042</v>
+        <v>150.1802076147578</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3400,7 +3400,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.06601739280696435</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7623031901659626</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3418,40 +3418,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5211906507611275</v>
+        <v>0.5201306245493398</v>
       </c>
       <c r="I4">
-        <v>-582.9920625692298</v>
+        <v>-582.9923205025917</v>
       </c>
       <c r="J4">
-        <v>9090879507.98678</v>
+        <v>0.6277319162042883</v>
       </c>
       <c r="K4">
-        <v>-12893.0871270597</v>
+        <v>2.898438697957895</v>
       </c>
       <c r="L4">
-        <v>9090908963.079308</v>
+        <v>0.6277319163728201</v>
       </c>
       <c r="M4">
-        <v>-60812.14018911123</v>
+        <v>2.898438697960226</v>
       </c>
       <c r="N4">
-        <v>0.5500008723765057</v>
+        <v>1.107248980049241</v>
       </c>
       <c r="O4">
-        <v>1.10000180588494</v>
+        <v>1.100000023841801</v>
       </c>
       <c r="P4">
-        <v>0.5500009335084347</v>
+        <v>1.109334740367461</v>
       </c>
       <c r="Q4">
-        <v>89.99984898887058</v>
+        <v>29.65845261898186</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648174</v>
+        <v>-89.99999999999804</v>
       </c>
       <c r="S4">
-        <v>89.99984899815134</v>
+        <v>150.1529082841736</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3495,22 +3495,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5500008723919623</v>
+        <v>1.107248980049031</v>
       </c>
       <c r="O5">
-        <v>1.10000180588494</v>
+        <v>1.100000023841801</v>
       </c>
       <c r="P5">
-        <v>0.5500009334929782</v>
+        <v>1.109334740367375</v>
       </c>
       <c r="Q5">
-        <v>89.99984898745149</v>
+        <v>29.65845261898063</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648176</v>
+        <v>-89.99999999999804</v>
       </c>
       <c r="S5">
-        <v>89.99984899957042</v>
+        <v>150.1529082841636</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008723919623</v>
+        <v>1.107248980049031</v>
       </c>
       <c r="O6">
-        <v>1.10000180588494</v>
+        <v>1.100000023841801</v>
       </c>
       <c r="P6">
-        <v>0.5500009334929783</v>
+        <v>1.109334740367375</v>
       </c>
       <c r="Q6">
-        <v>89.99984898745146</v>
+        <v>29.65845261898061</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648176</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S6">
-        <v>89.99984899957045</v>
+        <v>150.1529082841636</v>
       </c>
     </row>
   </sheetData>
@@ -3685,22 +3685,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.10117703878311</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101325831987042</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95570218484097</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0308689902517</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3744,22 +3744,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.550000872391962</v>
+        <v>1.106416246260832</v>
       </c>
       <c r="O3">
-        <v>1.10000180588494</v>
+        <v>1.100000023841801</v>
       </c>
       <c r="P3">
-        <v>0.5500009334929783</v>
+        <v>1.106793031689778</v>
       </c>
       <c r="Q3">
-        <v>89.99984898745149</v>
+        <v>29.78573240407062</v>
       </c>
       <c r="R3">
-        <v>-90.00015100648176</v>
+        <v>-89.99999999999802</v>
       </c>
       <c r="S3">
-        <v>89.99984899957042</v>
+        <v>150.1802076147578</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3767,7 +3767,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.06601739280696435</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7623031901659626</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3785,40 +3785,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5211906507611275</v>
+        <v>0.5201306245493398</v>
       </c>
       <c r="I4">
-        <v>-582.9920625692298</v>
+        <v>-582.9923205025917</v>
       </c>
       <c r="J4">
-        <v>9090879507.98678</v>
+        <v>0.6277319162042883</v>
       </c>
       <c r="K4">
-        <v>-12893.0871270597</v>
+        <v>2.898438697957895</v>
       </c>
       <c r="L4">
-        <v>9090908963.079308</v>
+        <v>0.6277319163728201</v>
       </c>
       <c r="M4">
-        <v>-60812.14018911123</v>
+        <v>2.898438697960226</v>
       </c>
       <c r="N4">
-        <v>0.5500008723765057</v>
+        <v>1.107248980049241</v>
       </c>
       <c r="O4">
-        <v>1.10000180588494</v>
+        <v>1.100000023841801</v>
       </c>
       <c r="P4">
-        <v>0.5500009335084347</v>
+        <v>1.109334740367461</v>
       </c>
       <c r="Q4">
-        <v>89.99984898887058</v>
+        <v>29.65845261898186</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648174</v>
+        <v>-89.99999999999804</v>
       </c>
       <c r="S4">
-        <v>89.99984899815134</v>
+        <v>150.1529082841736</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3862,22 +3862,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5500008723919623</v>
+        <v>1.107248980049031</v>
       </c>
       <c r="O5">
-        <v>1.10000180588494</v>
+        <v>1.100000023841801</v>
       </c>
       <c r="P5">
-        <v>0.5500009334929782</v>
+        <v>1.109334740367375</v>
       </c>
       <c r="Q5">
-        <v>89.99984898745149</v>
+        <v>29.65845261898063</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648176</v>
+        <v>-89.99999999999804</v>
       </c>
       <c r="S5">
-        <v>89.99984899957042</v>
+        <v>150.1529082841636</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3921,22 +3921,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008723919623</v>
+        <v>1.107248980049031</v>
       </c>
       <c r="O6">
-        <v>1.10000180588494</v>
+        <v>1.100000023841801</v>
       </c>
       <c r="P6">
-        <v>0.5500009334929783</v>
+        <v>1.109334740367375</v>
       </c>
       <c r="Q6">
-        <v>89.99984898745146</v>
+        <v>29.65845261898061</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648176</v>
+        <v>-89.99999999999805</v>
       </c>
       <c r="S6">
-        <v>89.99984899957045</v>
+        <v>150.1529082841636</v>
       </c>
     </row>
   </sheetData>
@@ -4052,22 +4052,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.101184141070724</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101376393977659</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95287607270573</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.029772643591</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4111,22 +4111,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5500008731778899</v>
+        <v>1.106469486425894</v>
       </c>
       <c r="O3">
-        <v>1.100001805884938</v>
+        <v>1.100000023841809</v>
       </c>
       <c r="P3">
-        <v>0.5500009327070484</v>
+        <v>1.107063836398166</v>
       </c>
       <c r="Q3">
-        <v>89.99984890558029</v>
+        <v>29.77109135871647</v>
       </c>
       <c r="R3">
-        <v>-90.0001510064815</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S3">
-        <v>89.99984908144212</v>
+        <v>150.1751790638768</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4134,7 +4134,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.06774897615303206</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7822977923854919</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4152,40 +4152,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5211906507611275</v>
+        <v>0.5201306245493398</v>
       </c>
       <c r="I4">
-        <v>-582.9920625692298</v>
+        <v>-582.9923205025917</v>
       </c>
       <c r="J4">
-        <v>9090879507.98678</v>
+        <v>0.6277319162042883</v>
       </c>
       <c r="K4">
-        <v>-12893.0871270597</v>
+        <v>2.898438697957895</v>
       </c>
       <c r="L4">
-        <v>9090908963.079308</v>
+        <v>0.6277319163728201</v>
       </c>
       <c r="M4">
-        <v>-60812.14018911123</v>
+        <v>2.898438697960226</v>
       </c>
       <c r="N4">
-        <v>0.5500008731624334</v>
+        <v>1.107257005441289</v>
       </c>
       <c r="O4">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P4">
-        <v>0.5500009327225049</v>
+        <v>1.109656861366548</v>
       </c>
       <c r="Q4">
-        <v>89.9998489069994</v>
+        <v>29.63935210837966</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648149</v>
+        <v>-89.99999999999808</v>
       </c>
       <c r="S4">
-        <v>89.99984908002304</v>
+        <v>150.1435909232904</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4229,22 +4229,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5500008731778899</v>
+        <v>1.107257005441073</v>
       </c>
       <c r="O5">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P5">
-        <v>0.5500009327070483</v>
+        <v>1.109656861366454</v>
       </c>
       <c r="Q5">
-        <v>89.99984890558029</v>
+        <v>29.63935210837868</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648149</v>
+        <v>-89.99999999999808</v>
       </c>
       <c r="S5">
-        <v>89.99984908144212</v>
+        <v>150.1435909232803</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4288,22 +4288,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008731778899</v>
+        <v>1.107257005441073</v>
       </c>
       <c r="O6">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P6">
-        <v>0.5500009327070484</v>
+        <v>1.109656861366454</v>
       </c>
       <c r="Q6">
-        <v>89.99984890558029</v>
+        <v>29.63935210837867</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648149</v>
+        <v>-89.9999999999981</v>
       </c>
       <c r="S6">
-        <v>89.99984908144214</v>
+        <v>150.1435909232803</v>
       </c>
     </row>
   </sheetData>
@@ -4570,22 +4570,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.101184141070724</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101376393977659</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.95287607270573</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.029772643591</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4629,22 +4629,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5500008731778899</v>
+        <v>1.106469486425894</v>
       </c>
       <c r="O3">
-        <v>1.100001805884938</v>
+        <v>1.100000023841809</v>
       </c>
       <c r="P3">
-        <v>0.5500009327070484</v>
+        <v>1.107063836398166</v>
       </c>
       <c r="Q3">
-        <v>89.99984890558029</v>
+        <v>29.77109135871647</v>
       </c>
       <c r="R3">
-        <v>-90.0001510064815</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S3">
-        <v>89.99984908144212</v>
+        <v>150.1751790638768</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4652,7 +4652,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.06774897615303206</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7822977923854919</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4670,40 +4670,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5211906507611275</v>
+        <v>0.5201306245493398</v>
       </c>
       <c r="I4">
-        <v>-582.9920625692298</v>
+        <v>-582.9923205025917</v>
       </c>
       <c r="J4">
-        <v>9090879507.98678</v>
+        <v>0.6277319162042883</v>
       </c>
       <c r="K4">
-        <v>-12893.0871270597</v>
+        <v>2.898438697957895</v>
       </c>
       <c r="L4">
-        <v>9090908963.079308</v>
+        <v>0.6277319163728201</v>
       </c>
       <c r="M4">
-        <v>-60812.14018911123</v>
+        <v>2.898438697960226</v>
       </c>
       <c r="N4">
-        <v>0.5500008731624334</v>
+        <v>1.107257005441289</v>
       </c>
       <c r="O4">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P4">
-        <v>0.5500009327225049</v>
+        <v>1.109656861366548</v>
       </c>
       <c r="Q4">
-        <v>89.9998489069994</v>
+        <v>29.63935210837966</v>
       </c>
       <c r="R4">
-        <v>-90.00015100648149</v>
+        <v>-89.99999999999808</v>
       </c>
       <c r="S4">
-        <v>89.99984908002304</v>
+        <v>150.1435909232904</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4747,22 +4747,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5500008731778899</v>
+        <v>1.107257005441073</v>
       </c>
       <c r="O5">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P5">
-        <v>0.5500009327070483</v>
+        <v>1.109656861366454</v>
       </c>
       <c r="Q5">
-        <v>89.99984890558029</v>
+        <v>29.63935210837868</v>
       </c>
       <c r="R5">
-        <v>-90.00015100648149</v>
+        <v>-89.99999999999808</v>
       </c>
       <c r="S5">
-        <v>89.99984908144212</v>
+        <v>150.1435909232803</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4806,22 +4806,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5500008731778899</v>
+        <v>1.107257005441073</v>
       </c>
       <c r="O6">
-        <v>1.100001805884938</v>
+        <v>1.100000023841808</v>
       </c>
       <c r="P6">
-        <v>0.5500009327070484</v>
+        <v>1.109656861366454</v>
       </c>
       <c r="Q6">
-        <v>89.99984890558029</v>
+        <v>29.63935210837867</v>
       </c>
       <c r="R6">
-        <v>-90.00015100648149</v>
+        <v>-89.9999999999981</v>
       </c>
       <c r="S6">
-        <v>89.99984908144214</v>
+        <v>150.1435909232803</v>
       </c>
     </row>
   </sheetData>
@@ -4937,22 +4937,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001214197273594</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001371690223502</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94947577255956</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0348880312728</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4996,22 +4996,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999995732186918</v>
+        <v>1.00609452257377</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504017</v>
+        <v>0.9999999999999335</v>
       </c>
       <c r="P3">
-        <v>0.4999996287317098</v>
+        <v>1.006478927569216</v>
       </c>
       <c r="Q3">
-        <v>90.00014604736711</v>
+        <v>29.77443493752699</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412879</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S3">
-        <v>90.00014606436075</v>
+        <v>150.1873379039145</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5019,7 +5019,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.06003752727566084</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.6932536506816458</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5037,40 +5037,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9984914213418961</v>
+        <v>0.9984001188115093</v>
       </c>
       <c r="I4">
-        <v>-582.9928433148015</v>
+        <v>-582.993165650822</v>
       </c>
       <c r="J4">
-        <v>9090945086.012196</v>
+        <v>1.113751880210356</v>
       </c>
       <c r="K4">
-        <v>-15485.04141736776</v>
+        <v>3.006397543741851</v>
       </c>
       <c r="L4">
-        <v>9090930575.889233</v>
+        <v>1.113751880241598</v>
       </c>
       <c r="M4">
-        <v>30863.34544625133</v>
+        <v>3.006397543745481</v>
       </c>
       <c r="N4">
-        <v>0.4999995732046406</v>
+        <v>1.006130073746253</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504016</v>
+        <v>0.9999999999999338</v>
       </c>
       <c r="P4">
-        <v>0.499999628745761</v>
+        <v>1.009497511635161</v>
       </c>
       <c r="Q4">
-        <v>90.00014605009181</v>
+        <v>29.5761946297405</v>
       </c>
       <c r="R4">
-        <v>-89.99985394412877</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>90.00014606163606</v>
+        <v>150.088763371081</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5114,22 +5114,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999995732186918</v>
+        <v>1.006130073745964</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504016</v>
+        <v>0.9999999999999341</v>
       </c>
       <c r="P5">
-        <v>0.4999996287317098</v>
+        <v>1.009497511634925</v>
       </c>
       <c r="Q5">
-        <v>90.00014604736711</v>
+        <v>29.57619462974639</v>
       </c>
       <c r="R5">
-        <v>-89.99985394412877</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>90.00014606436076</v>
+        <v>150.0887633710699</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5173,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995732186918</v>
+        <v>1.006130073745964</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504016</v>
+        <v>0.9999999999999339</v>
       </c>
       <c r="P6">
-        <v>0.4999996287317098</v>
+        <v>1.009497511634925</v>
       </c>
       <c r="Q6">
-        <v>90.00014604736711</v>
+        <v>29.57619462974638</v>
       </c>
       <c r="R6">
-        <v>-89.99985394412877</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>90.00014606436076</v>
+        <v>150.0887633710699</v>
       </c>
     </row>
   </sheetData>
@@ -5304,22 +5304,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001214197273594</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001371690223502</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94947577255956</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0348880312728</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5363,22 +5363,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999995732186918</v>
+        <v>1.00609452257377</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504017</v>
+        <v>0.9999999999999335</v>
       </c>
       <c r="P3">
-        <v>0.4999996287317098</v>
+        <v>1.006478927569216</v>
       </c>
       <c r="Q3">
-        <v>90.00014604736711</v>
+        <v>29.77443493752699</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412879</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S3">
-        <v>90.00014606436075</v>
+        <v>150.1873379039145</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5386,7 +5386,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.06003752727566084</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.6932536506816458</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5404,40 +5404,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9984914213418961</v>
+        <v>0.9984001188115093</v>
       </c>
       <c r="I4">
-        <v>-582.9928433148015</v>
+        <v>-582.993165650822</v>
       </c>
       <c r="J4">
-        <v>9090945086.012196</v>
+        <v>1.113751880210356</v>
       </c>
       <c r="K4">
-        <v>-15485.04141736776</v>
+        <v>3.006397543741851</v>
       </c>
       <c r="L4">
-        <v>9090930575.889233</v>
+        <v>1.113751880241598</v>
       </c>
       <c r="M4">
-        <v>30863.34544625133</v>
+        <v>3.006397543745481</v>
       </c>
       <c r="N4">
-        <v>0.4999995732046406</v>
+        <v>1.006130073746253</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504016</v>
+        <v>0.9999999999999338</v>
       </c>
       <c r="P4">
-        <v>0.499999628745761</v>
+        <v>1.009497511635161</v>
       </c>
       <c r="Q4">
-        <v>90.00014605009181</v>
+        <v>29.5761946297405</v>
       </c>
       <c r="R4">
-        <v>-89.99985394412877</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S4">
-        <v>90.00014606163606</v>
+        <v>150.088763371081</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5481,22 +5481,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999995732186918</v>
+        <v>1.006130073745964</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504016</v>
+        <v>0.9999999999999341</v>
       </c>
       <c r="P5">
-        <v>0.4999996287317098</v>
+        <v>1.009497511634925</v>
       </c>
       <c r="Q5">
-        <v>90.00014604736711</v>
+        <v>29.57619462974639</v>
       </c>
       <c r="R5">
-        <v>-89.99985394412877</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S5">
-        <v>90.00014606436076</v>
+        <v>150.0887633710699</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5540,22 +5540,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995732186918</v>
+        <v>1.006130073745964</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504016</v>
+        <v>0.9999999999999339</v>
       </c>
       <c r="P6">
-        <v>0.4999996287317098</v>
+        <v>1.009497511634925</v>
       </c>
       <c r="Q6">
-        <v>90.00014604736711</v>
+        <v>29.57619462974638</v>
       </c>
       <c r="R6">
-        <v>-89.99985394412877</v>
+        <v>-89.9999999999979</v>
       </c>
       <c r="S6">
-        <v>90.00014606436076</v>
+        <v>150.0887633710699</v>
       </c>
     </row>
   </sheetData>
@@ -5671,22 +5671,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001221258820422</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999949</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001423844972176</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94626055533312</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0336261130049</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5730,22 +5730,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999995739331572</v>
+        <v>1.006143614978162</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504038</v>
+        <v>0.9999999999999332</v>
       </c>
       <c r="P3">
-        <v>0.4999996280172465</v>
+        <v>1.00673622395749</v>
       </c>
       <c r="Q3">
-        <v>90.00014596549427</v>
+        <v>29.75908526352232</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412889</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>90.00014614623338</v>
+        <v>150.1819797873684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5753,7 +5753,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.06160858012174194</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7113946063535668</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5771,40 +5771,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9984914213418961</v>
+        <v>0.9984001188115093</v>
       </c>
       <c r="I4">
-        <v>-582.9928433148015</v>
+        <v>-582.993165650822</v>
       </c>
       <c r="J4">
-        <v>9090945086.012196</v>
+        <v>1.113751880210356</v>
       </c>
       <c r="K4">
-        <v>-15485.04141736776</v>
+        <v>3.006397543741851</v>
       </c>
       <c r="L4">
-        <v>9090930575.889233</v>
+        <v>1.113751880241598</v>
       </c>
       <c r="M4">
-        <v>30863.34544625133</v>
+        <v>3.006397543745481</v>
       </c>
       <c r="N4">
-        <v>0.499999573919106</v>
+        <v>1.006085373707777</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999337</v>
       </c>
       <c r="P4">
-        <v>0.4999996280312976</v>
+        <v>1.009785235630451</v>
       </c>
       <c r="Q4">
-        <v>90.00014596821899</v>
+        <v>29.55567430229005</v>
       </c>
       <c r="R4">
-        <v>-89.99985394412887</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>90.00014614350869</v>
+        <v>150.076194587521</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5848,22 +5848,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999995739331572</v>
+        <v>1.006085373707484</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999338</v>
       </c>
       <c r="P5">
-        <v>0.4999996280172464</v>
+        <v>1.009785235630204</v>
       </c>
       <c r="Q5">
-        <v>90.0001459654943</v>
+        <v>29.55567430229653</v>
       </c>
       <c r="R5">
-        <v>-89.99985394412886</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>90.00014614623339</v>
+        <v>150.0761945875099</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5907,22 +5907,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995739331572</v>
+        <v>1.006085373707484</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999338</v>
       </c>
       <c r="P6">
-        <v>0.4999996280172464</v>
+        <v>1.009785235630204</v>
       </c>
       <c r="Q6">
-        <v>90.00014596549428</v>
+        <v>29.55567430229653</v>
       </c>
       <c r="R6">
-        <v>-89.99985394412886</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>90.0001461462334</v>
+        <v>150.0761945875099</v>
       </c>
     </row>
   </sheetData>
@@ -6038,22 +6038,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001221258820422</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999949</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001423844972176</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.94626055533312</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0336261130049</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6097,22 +6097,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999995739331572</v>
+        <v>1.006143614978162</v>
       </c>
       <c r="O3">
-        <v>0.9999992019504038</v>
+        <v>0.9999999999999332</v>
       </c>
       <c r="P3">
-        <v>0.4999996280172465</v>
+        <v>1.00673622395749</v>
       </c>
       <c r="Q3">
-        <v>90.00014596549427</v>
+        <v>29.75908526352232</v>
       </c>
       <c r="R3">
-        <v>-89.99985394412889</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S3">
-        <v>90.00014614623338</v>
+        <v>150.1819797873684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6120,7 +6120,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.06160858012174194</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7113946063535668</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6138,40 +6138,40 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9984914213418961</v>
+        <v>0.9984001188115093</v>
       </c>
       <c r="I4">
-        <v>-582.9928433148015</v>
+        <v>-582.993165650822</v>
       </c>
       <c r="J4">
-        <v>9090945086.012196</v>
+        <v>1.113751880210356</v>
       </c>
       <c r="K4">
-        <v>-15485.04141736776</v>
+        <v>3.006397543741851</v>
       </c>
       <c r="L4">
-        <v>9090930575.889233</v>
+        <v>1.113751880241598</v>
       </c>
       <c r="M4">
-        <v>30863.34544625133</v>
+        <v>3.006397543745481</v>
       </c>
       <c r="N4">
-        <v>0.499999573919106</v>
+        <v>1.006085373707777</v>
       </c>
       <c r="O4">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999337</v>
       </c>
       <c r="P4">
-        <v>0.4999996280312976</v>
+        <v>1.009785235630451</v>
       </c>
       <c r="Q4">
-        <v>90.00014596821899</v>
+        <v>29.55567430229005</v>
       </c>
       <c r="R4">
-        <v>-89.99985394412887</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>90.00014614350869</v>
+        <v>150.076194587521</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6215,22 +6215,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4999995739331572</v>
+        <v>1.006085373707484</v>
       </c>
       <c r="O5">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999338</v>
       </c>
       <c r="P5">
-        <v>0.4999996280172464</v>
+        <v>1.009785235630204</v>
       </c>
       <c r="Q5">
-        <v>90.0001459654943</v>
+        <v>29.55567430229653</v>
       </c>
       <c r="R5">
-        <v>-89.99985394412886</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S5">
-        <v>90.00014614623339</v>
+        <v>150.0761945875099</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999995739331572</v>
+        <v>1.006085373707484</v>
       </c>
       <c r="O6">
-        <v>0.9999992019504037</v>
+        <v>0.9999999999999338</v>
       </c>
       <c r="P6">
-        <v>0.4999996280172464</v>
+        <v>1.009785235630204</v>
       </c>
       <c r="Q6">
-        <v>90.00014596549428</v>
+        <v>29.55567430229653</v>
       </c>
       <c r="R6">
-        <v>-89.99985394412886</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S6">
-        <v>90.0001461462334</v>
+        <v>150.0761945875099</v>
       </c>
     </row>
   </sheetData>
@@ -6405,22 +6405,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.07040058905336</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9380319009574348</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.05383161372277</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.97949104268164</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.13019952201576</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.5762962898767</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6464,22 +6464,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.169601477833214E-06</v>
+        <v>1.033476176328098</v>
       </c>
       <c r="O3">
-        <v>5.603236081302225E-06</v>
+        <v>0.291705603751269</v>
       </c>
       <c r="P3">
-        <v>2.589753824366139E-06</v>
+        <v>0.8925718306120466</v>
       </c>
       <c r="Q3">
-        <v>-76.89673476344383</v>
+        <v>7.073381243102765</v>
       </c>
       <c r="R3">
-        <v>130.5453467742008</v>
+        <v>-119.1713773550741</v>
       </c>
       <c r="S3">
-        <v>17.46275092090459</v>
+        <v>171.7910471874302</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6490,55 +6490,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.712679225565415</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.705698682433228</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.87032700589848</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.78972263676932</v>
       </c>
       <c r="H4">
-        <v>0.5195952951908112</v>
+        <v>0.5201306245498729</v>
       </c>
       <c r="I4">
-        <v>-582.9910092317234</v>
+        <v>-582.9923205025926</v>
       </c>
       <c r="J4">
-        <v>9090849404.73571</v>
+        <v>0.6277319163874261</v>
       </c>
       <c r="K4">
-        <v>-72024.60035756232</v>
+        <v>2.898438698005111</v>
       </c>
       <c r="L4">
-        <v>9090896116.666706</v>
+        <v>0.6277319163592477</v>
       </c>
       <c r="M4">
-        <v>-46557.7635422349</v>
+        <v>2.898438697967479</v>
       </c>
       <c r="N4">
-        <v>5.16962312686545E-06</v>
+        <v>0.9550013345456125</v>
       </c>
       <c r="O4">
-        <v>5.603259636006362E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2.589777609449268E-06</v>
+        <v>0.9550013345472014</v>
       </c>
       <c r="Q4">
-        <v>-76.89684407994615</v>
+        <v>-0.03105058035029181</v>
       </c>
       <c r="R4">
-        <v>130.5453808970746</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>17.46276145249029</v>
+        <v>179.9689494196665</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6582,22 +6582,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.169601477690629E-06</v>
+        <v>0.9550013345366422</v>
       </c>
       <c r="O5">
-        <v>5.603236081031099E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.589753824262101E-06</v>
+        <v>0.9550013345560874</v>
       </c>
       <c r="Q5">
-        <v>-76.8967347638054</v>
+        <v>-0.03105057988059294</v>
       </c>
       <c r="R5">
-        <v>130.5453467739848</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>17.46275092303927</v>
+        <v>179.9689494191931</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6641,22 +6641,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.169601477778537E-06</v>
+        <v>0.9550013345366422</v>
       </c>
       <c r="O6">
-        <v>5.603236080940725E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.589753824050411E-06</v>
+        <v>0.9550013345560874</v>
       </c>
       <c r="Q6">
-        <v>-76.89673476184394</v>
+        <v>-0.03105057988058759</v>
       </c>
       <c r="R6">
-        <v>130.5453467739128</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>17.46275092705446</v>
+        <v>179.968949419193</v>
       </c>
     </row>
   </sheetData>
@@ -6772,22 +6772,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.07040058905336</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9380319009574348</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.05383161372277</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.97949104268164</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.13019952201576</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.5762962898767</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6831,22 +6831,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.169601477833214E-06</v>
+        <v>1.033476176328098</v>
       </c>
       <c r="O3">
-        <v>5.603236081302225E-06</v>
+        <v>0.291705603751269</v>
       </c>
       <c r="P3">
-        <v>2.589753824366139E-06</v>
+        <v>0.8925718306120466</v>
       </c>
       <c r="Q3">
-        <v>-76.89673476344383</v>
+        <v>7.073381243102765</v>
       </c>
       <c r="R3">
-        <v>130.5453467742008</v>
+        <v>-119.1713773550741</v>
       </c>
       <c r="S3">
-        <v>17.46275092090459</v>
+        <v>171.7910471874302</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6857,55 +6857,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.712679225565415</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.705698682433228</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.87032700589848</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.78972263676932</v>
       </c>
       <c r="H4">
-        <v>0.5195952951908112</v>
+        <v>0.5201306245498729</v>
       </c>
       <c r="I4">
-        <v>-582.9910092317234</v>
+        <v>-582.9923205025926</v>
       </c>
       <c r="J4">
-        <v>9090849404.73571</v>
+        <v>0.6277319163874261</v>
       </c>
       <c r="K4">
-        <v>-72024.60035756232</v>
+        <v>2.898438698005111</v>
       </c>
       <c r="L4">
-        <v>9090896116.666706</v>
+        <v>0.6277319163592477</v>
       </c>
       <c r="M4">
-        <v>-46557.7635422349</v>
+        <v>2.898438697967479</v>
       </c>
       <c r="N4">
-        <v>5.16962312686545E-06</v>
+        <v>0.9550013345456125</v>
       </c>
       <c r="O4">
-        <v>5.603259636006362E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2.589777609449268E-06</v>
+        <v>0.9550013345472014</v>
       </c>
       <c r="Q4">
-        <v>-76.89684407994615</v>
+        <v>-0.03105058035029181</v>
       </c>
       <c r="R4">
-        <v>130.5453808970746</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>17.46276145249029</v>
+        <v>179.9689494196665</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6949,22 +6949,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.169601477690629E-06</v>
+        <v>0.9550013345366422</v>
       </c>
       <c r="O5">
-        <v>5.603236081031099E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.589753824262101E-06</v>
+        <v>0.9550013345560874</v>
       </c>
       <c r="Q5">
-        <v>-76.8967347638054</v>
+        <v>-0.03105057988059294</v>
       </c>
       <c r="R5">
-        <v>130.5453467739848</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>17.46275092303927</v>
+        <v>179.9689494191931</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7008,22 +7008,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.169601477778537E-06</v>
+        <v>0.9550013345366422</v>
       </c>
       <c r="O6">
-        <v>5.603236080940725E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.589753824050411E-06</v>
+        <v>0.9550013345560874</v>
       </c>
       <c r="Q6">
-        <v>-76.89673476184394</v>
+        <v>-0.03105057988058759</v>
       </c>
       <c r="R6">
-        <v>130.5453467739128</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>17.46275092705446</v>
+        <v>179.968949419193</v>
       </c>
     </row>
   </sheetData>
@@ -7139,22 +7139,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100476555909733</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.056966443489685</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.078852495011131</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.68942140275718</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.34292556127392</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6751393557194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7198,22 +7198,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.168063946271743E-06</v>
+        <v>1.115827307607392</v>
       </c>
       <c r="O3">
-        <v>5.602383053535448E-06</v>
+        <v>0.8910570420388048</v>
       </c>
       <c r="P3">
-        <v>2.587585042575922E-06</v>
+        <v>0.9870260776602178</v>
       </c>
       <c r="Q3">
-        <v>-76.87831788850873</v>
+        <v>23.20826384073032</v>
       </c>
       <c r="R3">
-        <v>130.5446670583071</v>
+        <v>-99.16867920489064</v>
       </c>
       <c r="S3">
-        <v>17.44839374517257</v>
+        <v>153.5295397110011</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7224,55 +7224,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.144123468855399</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.124476940129553</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13.21119985459666</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>12.98434128162648</v>
       </c>
       <c r="H4">
-        <v>0.5195952951908112</v>
+        <v>0.5201306245498729</v>
       </c>
       <c r="I4">
-        <v>-582.9910092317234</v>
+        <v>-582.9923205025926</v>
       </c>
       <c r="J4">
-        <v>9090849404.73571</v>
+        <v>0.6277319163874261</v>
       </c>
       <c r="K4">
-        <v>-72024.60035756232</v>
+        <v>2.898438698005111</v>
       </c>
       <c r="L4">
-        <v>9090896116.666706</v>
+        <v>0.6277319163592477</v>
       </c>
       <c r="M4">
-        <v>-46557.7635422349</v>
+        <v>2.898438697967479</v>
       </c>
       <c r="N4">
-        <v>5.168085592040995E-06</v>
+        <v>1.09510237228045</v>
       </c>
       <c r="O4">
-        <v>5.602406608158328E-06</v>
+        <v>0.802015620936942</v>
       </c>
       <c r="P4">
-        <v>2.587608827580969E-06</v>
+        <v>0.9728879715224011</v>
       </c>
       <c r="Q4">
-        <v>-76.87842731589862</v>
+        <v>21.13841297383581</v>
       </c>
       <c r="R4">
-        <v>130.5447011887361</v>
+        <v>-99.52967390016401</v>
       </c>
       <c r="S4">
-        <v>17.44840441577651</v>
+        <v>155.9793452850838</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7316,22 +7316,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.168063946114515E-06</v>
+        <v>1.095102372277582</v>
       </c>
       <c r="O5">
-        <v>5.602383053320072E-06</v>
+        <v>0.8020156209380312</v>
       </c>
       <c r="P5">
-        <v>2.587585042433395E-06</v>
+        <v>0.9728879715259925</v>
       </c>
       <c r="Q5">
-        <v>-76.87831788956179</v>
+        <v>21.1384129739556</v>
       </c>
       <c r="R5">
-        <v>130.5446670567406</v>
+        <v>-99.52967389965016</v>
       </c>
       <c r="S5">
-        <v>17.4483937445987</v>
+        <v>155.979345285103</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7375,22 +7375,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.168063946096378E-06</v>
+        <v>1.095102372277583</v>
       </c>
       <c r="O6">
-        <v>5.602383053090613E-06</v>
+        <v>0.8020156209380312</v>
       </c>
       <c r="P6">
-        <v>2.587585042363171E-06</v>
+        <v>0.9728879715259927</v>
       </c>
       <c r="Q6">
-        <v>-76.87831788951492</v>
+        <v>21.1384129739556</v>
       </c>
       <c r="R6">
-        <v>130.5446670570227</v>
+        <v>-99.52967389965015</v>
       </c>
       <c r="S6">
-        <v>17.44839374911848</v>
+        <v>155.9793452851031</v>
       </c>
     </row>
   </sheetData>
@@ -7506,22 +7506,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100476555909733</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.056966443489685</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.078852495011131</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.68942140275718</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.34292556127392</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6751393557194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7565,22 +7565,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.168063946271743E-06</v>
+        <v>1.115827307607392</v>
       </c>
       <c r="O3">
-        <v>5.602383053535448E-06</v>
+        <v>0.8910570420388048</v>
       </c>
       <c r="P3">
-        <v>2.587585042575922E-06</v>
+        <v>0.9870260776602178</v>
       </c>
       <c r="Q3">
-        <v>-76.87831788850873</v>
+        <v>23.20826384073032</v>
       </c>
       <c r="R3">
-        <v>130.5446670583071</v>
+        <v>-99.16867920489064</v>
       </c>
       <c r="S3">
-        <v>17.44839374517257</v>
+        <v>153.5295397110011</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7591,55 +7591,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.144123468855399</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.124476940129553</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13.21119985459666</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>12.98434128162648</v>
       </c>
       <c r="H4">
-        <v>0.5195952951908112</v>
+        <v>0.5201306245498729</v>
       </c>
       <c r="I4">
-        <v>-582.9910092317234</v>
+        <v>-582.9923205025926</v>
       </c>
       <c r="J4">
-        <v>9090849404.73571</v>
+        <v>0.6277319163874261</v>
       </c>
       <c r="K4">
-        <v>-72024.60035756232</v>
+        <v>2.898438698005111</v>
       </c>
       <c r="L4">
-        <v>9090896116.666706</v>
+        <v>0.6277319163592477</v>
       </c>
       <c r="M4">
-        <v>-46557.7635422349</v>
+        <v>2.898438697967479</v>
       </c>
       <c r="N4">
-        <v>5.168085592040995E-06</v>
+        <v>1.09510237228045</v>
       </c>
       <c r="O4">
-        <v>5.602406608158328E-06</v>
+        <v>0.802015620936942</v>
       </c>
       <c r="P4">
-        <v>2.587608827580969E-06</v>
+        <v>0.9728879715224011</v>
       </c>
       <c r="Q4">
-        <v>-76.87842731589862</v>
+        <v>21.13841297383581</v>
       </c>
       <c r="R4">
-        <v>130.5447011887361</v>
+        <v>-99.52967390016401</v>
       </c>
       <c r="S4">
-        <v>17.44840441577651</v>
+        <v>155.9793452850838</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7683,22 +7683,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.168063946114515E-06</v>
+        <v>1.095102372277582</v>
       </c>
       <c r="O5">
-        <v>5.602383053320072E-06</v>
+        <v>0.8020156209380312</v>
       </c>
       <c r="P5">
-        <v>2.587585042433395E-06</v>
+        <v>0.9728879715259925</v>
       </c>
       <c r="Q5">
-        <v>-76.87831788956179</v>
+        <v>21.1384129739556</v>
       </c>
       <c r="R5">
-        <v>130.5446670567406</v>
+        <v>-99.52967389965016</v>
       </c>
       <c r="S5">
-        <v>17.4483937445987</v>
+        <v>155.979345285103</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7742,22 +7742,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.168063946096378E-06</v>
+        <v>1.095102372277583</v>
       </c>
       <c r="O6">
-        <v>5.602383053090613E-06</v>
+        <v>0.8020156209380312</v>
       </c>
       <c r="P6">
-        <v>2.587585042363171E-06</v>
+        <v>0.9728879715259927</v>
       </c>
       <c r="Q6">
-        <v>-76.87831788951492</v>
+        <v>21.1384129739556</v>
       </c>
       <c r="R6">
-        <v>130.5446670570227</v>
+        <v>-99.52967389965015</v>
       </c>
       <c r="S6">
-        <v>17.44839374911848</v>
+        <v>155.9793452851031</v>
       </c>
     </row>
   </sheetData>
@@ -7873,22 +7873,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9825144301326366</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8500049525413956</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.94720795929213</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>25.59858697850815</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.65381631331444</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.3686240969492</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7932,22 +7932,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.119465803588918E-06</v>
+        <v>0.9918385179160992</v>
       </c>
       <c r="O3">
-        <v>1.491999694477173E-06</v>
+        <v>0.3617201835029351</v>
       </c>
       <c r="P3">
-        <v>1.901626076405418E-06</v>
+        <v>0.7667568331041601</v>
       </c>
       <c r="Q3">
-        <v>-119.2991103446543</v>
+        <v>8.130965996276366</v>
       </c>
       <c r="R3">
-        <v>-31.64812457123032</v>
+        <v>-129.0915432241862</v>
       </c>
       <c r="S3">
-        <v>112.3229195264222</v>
+        <v>169.4442862600117</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7958,55 +7958,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.124328027452701</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.113906029918377</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>36.07663255373019</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>35.95628969209147</v>
       </c>
       <c r="H4">
-        <v>0.9993312880396843</v>
+        <v>0.9984001188115509</v>
       </c>
       <c r="I4">
-        <v>-582.9928716445842</v>
+        <v>-582.9931656508213</v>
       </c>
       <c r="J4">
-        <v>9090956116.175537</v>
+        <v>1.113751880275154</v>
       </c>
       <c r="K4">
-        <v>-8046.034862846138</v>
+        <v>3.006397543825887</v>
       </c>
       <c r="L4">
-        <v>9090964257.421612</v>
+        <v>1.113751880229052</v>
       </c>
       <c r="M4">
-        <v>13743.02830025554</v>
+        <v>3.006397543752753</v>
       </c>
       <c r="N4">
-        <v>1.11949769529906E-06</v>
+        <v>0.8682623173480154</v>
       </c>
       <c r="O4">
-        <v>1.491971476394423E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.901614263000037E-06</v>
+        <v>0.8682623173484377</v>
       </c>
       <c r="Q4">
-        <v>-119.2991137689261</v>
+        <v>-0.05512387501766517</v>
       </c>
       <c r="R4">
-        <v>-31.64755391362612</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>112.3220269892575</v>
+        <v>179.9448761246327</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8050,22 +8050,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.119465803777102E-06</v>
+        <v>0.8682623173398145</v>
       </c>
       <c r="O5">
-        <v>1.491999694697324E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.901626076238006E-06</v>
+        <v>0.8682623173564884</v>
       </c>
       <c r="Q5">
-        <v>-119.299110358059</v>
+        <v>-0.05512387411316941</v>
       </c>
       <c r="R5">
-        <v>-31.64812455445332</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>112.3229195316249</v>
+        <v>179.9448761237264</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8109,22 +8109,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.119465803715799E-06</v>
+        <v>0.8682623173398145</v>
       </c>
       <c r="O6">
-        <v>1.491999694751891E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.901626076254945E-06</v>
+        <v>0.8682623173564884</v>
       </c>
       <c r="Q6">
-        <v>-119.2991103560578</v>
+        <v>-0.05512387411317243</v>
       </c>
       <c r="R6">
-        <v>-31.64812455316176</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>112.3229195355908</v>
+        <v>179.9448761237264</v>
       </c>
     </row>
   </sheetData>
@@ -8391,22 +8391,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9825144301326366</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8500049525413956</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.94720795929213</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>25.59858697850815</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.65381631331444</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.3686240969492</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.119465803588918E-06</v>
+        <v>0.9918385179160992</v>
       </c>
       <c r="O3">
-        <v>1.491999694477173E-06</v>
+        <v>0.3617201835029351</v>
       </c>
       <c r="P3">
-        <v>1.901626076405418E-06</v>
+        <v>0.7667568331041601</v>
       </c>
       <c r="Q3">
-        <v>-119.2991103446543</v>
+        <v>8.130965996276366</v>
       </c>
       <c r="R3">
-        <v>-31.64812457123032</v>
+        <v>-129.0915432241862</v>
       </c>
       <c r="S3">
-        <v>112.3229195264222</v>
+        <v>169.4442862600117</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8476,55 +8476,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.124328027452701</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.113906029918377</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>36.07663255373019</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>35.95628969209147</v>
       </c>
       <c r="H4">
-        <v>0.9993312880396843</v>
+        <v>0.9984001188115509</v>
       </c>
       <c r="I4">
-        <v>-582.9928716445842</v>
+        <v>-582.9931656508213</v>
       </c>
       <c r="J4">
-        <v>9090956116.175537</v>
+        <v>1.113751880275154</v>
       </c>
       <c r="K4">
-        <v>-8046.034862846138</v>
+        <v>3.006397543825887</v>
       </c>
       <c r="L4">
-        <v>9090964257.421612</v>
+        <v>1.113751880229052</v>
       </c>
       <c r="M4">
-        <v>13743.02830025554</v>
+        <v>3.006397543752753</v>
       </c>
       <c r="N4">
-        <v>1.11949769529906E-06</v>
+        <v>0.8682623173480154</v>
       </c>
       <c r="O4">
-        <v>1.491971476394423E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.901614263000037E-06</v>
+        <v>0.8682623173484377</v>
       </c>
       <c r="Q4">
-        <v>-119.2991137689261</v>
+        <v>-0.05512387501766517</v>
       </c>
       <c r="R4">
-        <v>-31.64755391362612</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>112.3220269892575</v>
+        <v>179.9448761246327</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8568,22 +8568,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.119465803777102E-06</v>
+        <v>0.8682623173398145</v>
       </c>
       <c r="O5">
-        <v>1.491999694697324E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.901626076238006E-06</v>
+        <v>0.8682623173564884</v>
       </c>
       <c r="Q5">
-        <v>-119.299110358059</v>
+        <v>-0.05512387411316941</v>
       </c>
       <c r="R5">
-        <v>-31.64812455445332</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>112.3229195316249</v>
+        <v>179.9448761237264</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8627,22 +8627,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.119465803715799E-06</v>
+        <v>0.8682623173398145</v>
       </c>
       <c r="O6">
-        <v>1.491999694751891E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.901626076254945E-06</v>
+        <v>0.8682623173564884</v>
       </c>
       <c r="Q6">
-        <v>-119.2991103560578</v>
+        <v>-0.05512387411317243</v>
       </c>
       <c r="R6">
-        <v>-31.64812455316176</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>112.3229195355908</v>
+        <v>179.9448761237264</v>
       </c>
     </row>
   </sheetData>
@@ -8758,22 +8758,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001332417078206</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9581045791311108</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9785773610315319</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.56755579586973</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.55789971897853</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6986526437069</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.117415153612356E-06</v>
+        <v>1.018393798227317</v>
       </c>
       <c r="O3">
-        <v>1.492756492808967E-06</v>
+        <v>0.8139299031202455</v>
       </c>
       <c r="P3">
-        <v>1.901206887793632E-06</v>
+        <v>0.8946675847553953</v>
       </c>
       <c r="Q3">
-        <v>-119.2902664235332</v>
+        <v>23.19384508501692</v>
       </c>
       <c r="R3">
-        <v>-31.6550187439241</v>
+        <v>-99.65273561736524</v>
       </c>
       <c r="S3">
-        <v>112.3836308403707</v>
+        <v>153.3481766376082</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8843,55 +8843,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.002092997641324</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.9834070485078369</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>11.57117323882515</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>11.3554064835795</v>
       </c>
       <c r="H4">
-        <v>0.9993312880396843</v>
+        <v>0.9984001188115509</v>
       </c>
       <c r="I4">
-        <v>-582.9928716445842</v>
+        <v>-582.9931656508213</v>
       </c>
       <c r="J4">
-        <v>9090956116.175537</v>
+        <v>1.113751880275154</v>
       </c>
       <c r="K4">
-        <v>-8046.034862846138</v>
+        <v>3.006397543825887</v>
       </c>
       <c r="L4">
-        <v>9090964257.421612</v>
+        <v>1.113751880229052</v>
       </c>
       <c r="M4">
-        <v>13743.02830025554</v>
+        <v>3.006397543752753</v>
       </c>
       <c r="N4">
-        <v>1.117447045168578E-06</v>
+        <v>0.9784917562900975</v>
       </c>
       <c r="O4">
-        <v>1.492728273079239E-06</v>
+        <v>0.7019303077933053</v>
       </c>
       <c r="P4">
-        <v>1.901195043196025E-06</v>
+        <v>0.8925958629240661</v>
       </c>
       <c r="Q4">
-        <v>-119.2902701068434</v>
+        <v>20.7692622780099</v>
       </c>
       <c r="R4">
-        <v>-31.6544485170838</v>
+        <v>-97.6343450704161</v>
       </c>
       <c r="S4">
-        <v>112.3827384828343</v>
+        <v>157.0024402863272</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.1174151537444E-06</v>
+        <v>0.9784917562877299</v>
       </c>
       <c r="O5">
-        <v>1.492756493184545E-06</v>
+        <v>0.7019303077990904</v>
       </c>
       <c r="P5">
-        <v>1.901206887769143E-06</v>
+        <v>0.8925958629287881</v>
       </c>
       <c r="Q5">
-        <v>-119.2902664385776</v>
+        <v>20.76926227827592</v>
       </c>
       <c r="R5">
-        <v>-31.65501873214616</v>
+        <v>-97.63434506973535</v>
       </c>
       <c r="S5">
-        <v>112.3836308458975</v>
+        <v>157.0024402862165</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8994,22 +8994,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.117415153714484E-06</v>
+        <v>0.9784917562877299</v>
       </c>
       <c r="O6">
-        <v>1.492756493279105E-06</v>
+        <v>0.7019303077990905</v>
       </c>
       <c r="P6">
-        <v>1.901206887868169E-06</v>
+        <v>0.8925958629287883</v>
       </c>
       <c r="Q6">
-        <v>-119.2902664394381</v>
+        <v>20.76926227827592</v>
       </c>
       <c r="R6">
-        <v>-31.65501873568907</v>
+        <v>-97.63434506973535</v>
       </c>
       <c r="S6">
-        <v>112.383630845713</v>
+        <v>157.0024402862165</v>
       </c>
     </row>
   </sheetData>
@@ -9125,22 +9125,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001332417078206</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9581045791311108</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9785773610315319</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.56755579586973</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.55789971897853</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6986526437069</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9184,22 +9184,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.117415153612356E-06</v>
+        <v>1.018393798227317</v>
       </c>
       <c r="O3">
-        <v>1.492756492808967E-06</v>
+        <v>0.8139299031202455</v>
       </c>
       <c r="P3">
-        <v>1.901206887793632E-06</v>
+        <v>0.8946675847553953</v>
       </c>
       <c r="Q3">
-        <v>-119.2902664235332</v>
+        <v>23.19384508501692</v>
       </c>
       <c r="R3">
-        <v>-31.6550187439241</v>
+        <v>-99.65273561736524</v>
       </c>
       <c r="S3">
-        <v>112.3836308403707</v>
+        <v>153.3481766376082</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9210,55 +9210,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.002092997641324</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.9834070485078369</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>11.57117323882515</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>11.3554064835795</v>
       </c>
       <c r="H4">
-        <v>0.9993312880396843</v>
+        <v>0.9984001188115509</v>
       </c>
       <c r="I4">
-        <v>-582.9928716445842</v>
+        <v>-582.9931656508213</v>
       </c>
       <c r="J4">
-        <v>9090956116.175537</v>
+        <v>1.113751880275154</v>
       </c>
       <c r="K4">
-        <v>-8046.034862846138</v>
+        <v>3.006397543825887</v>
       </c>
       <c r="L4">
-        <v>9090964257.421612</v>
+        <v>1.113751880229052</v>
       </c>
       <c r="M4">
-        <v>13743.02830025554</v>
+        <v>3.006397543752753</v>
       </c>
       <c r="N4">
-        <v>1.117447045168578E-06</v>
+        <v>0.9784917562900975</v>
       </c>
       <c r="O4">
-        <v>1.492728273079239E-06</v>
+        <v>0.7019303077933053</v>
       </c>
       <c r="P4">
-        <v>1.901195043196025E-06</v>
+        <v>0.8925958629240661</v>
       </c>
       <c r="Q4">
-        <v>-119.2902701068434</v>
+        <v>20.7692622780099</v>
       </c>
       <c r="R4">
-        <v>-31.6544485170838</v>
+        <v>-97.6343450704161</v>
       </c>
       <c r="S4">
-        <v>112.3827384828343</v>
+        <v>157.0024402863272</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9302,22 +9302,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.1174151537444E-06</v>
+        <v>0.9784917562877299</v>
       </c>
       <c r="O5">
-        <v>1.492756493184545E-06</v>
+        <v>0.7019303077990904</v>
       </c>
       <c r="P5">
-        <v>1.901206887769143E-06</v>
+        <v>0.8925958629287881</v>
       </c>
       <c r="Q5">
-        <v>-119.2902664385776</v>
+        <v>20.76926227827592</v>
       </c>
       <c r="R5">
-        <v>-31.65501873214616</v>
+        <v>-97.63434506973535</v>
       </c>
       <c r="S5">
-        <v>112.3836308458975</v>
+        <v>157.0024402862165</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9361,22 +9361,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.117415153714484E-06</v>
+        <v>0.9784917562877299</v>
       </c>
       <c r="O6">
-        <v>1.492756493279105E-06</v>
+        <v>0.7019303077990905</v>
       </c>
       <c r="P6">
-        <v>1.901206887868169E-06</v>
+        <v>0.8925958629287883</v>
       </c>
       <c r="Q6">
-        <v>-119.2902664394381</v>
+        <v>20.76926227827592</v>
       </c>
       <c r="R6">
-        <v>-31.65501873568907</v>
+        <v>-97.63434506973535</v>
       </c>
       <c r="S6">
-        <v>112.383630845713</v>
+        <v>157.0024402862165</v>
       </c>
     </row>
   </sheetData>
@@ -10247,22 +10247,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9380319009574474</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.053494350468706</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>25.98965116739713</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.13019952201597</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>153.5693903185486</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10306,22 +10306,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526302265250914</v>
+        <v>1.031611214669992</v>
       </c>
       <c r="O3">
-        <v>5.603192722321237E-06</v>
+        <v>0.2917056037513001</v>
       </c>
       <c r="P3">
-        <v>0.9526265841841453</v>
+        <v>0.8906876332644402</v>
       </c>
       <c r="Q3">
-        <v>-0.0001370833693112658</v>
+        <v>7.091324389062836</v>
       </c>
       <c r="R3">
-        <v>130.5451678353872</v>
+        <v>-119.1713773550786</v>
       </c>
       <c r="S3">
-        <v>-179.9998809963927</v>
+        <v>171.7794727726613</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10332,55 +10332,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.709154423937026</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.709154423937026</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.82962610251867</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>42.82962610251867</v>
       </c>
       <c r="H4">
-        <v>0.5195952951908112</v>
+        <v>0.5201306245498729</v>
       </c>
       <c r="I4">
-        <v>-582.9910092317234</v>
+        <v>-582.9923205025926</v>
       </c>
       <c r="J4">
-        <v>9090849404.73571</v>
+        <v>0.6277319163874261</v>
       </c>
       <c r="K4">
-        <v>-72024.60035756232</v>
+        <v>2.898438698005111</v>
       </c>
       <c r="L4">
-        <v>9090896116.666706</v>
+        <v>0.6277319163592477</v>
       </c>
       <c r="M4">
-        <v>-46557.7635422349</v>
+        <v>2.898438697967479</v>
       </c>
       <c r="N4">
-        <v>0.9526302265340152</v>
+        <v>0.9526279648032087</v>
       </c>
       <c r="O4">
-        <v>5.603216277056618E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526265841752213</v>
+        <v>0.9526279648047569</v>
       </c>
       <c r="Q4">
-        <v>-0.0001370838423364236</v>
+        <v>-1.210835655542595E-11</v>
       </c>
       <c r="R4">
-        <v>130.5452019597754</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9998809959197</v>
+        <v>-179.9999999999815</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526302265250912</v>
+        <v>0.9526279647942846</v>
       </c>
       <c r="O5">
-        <v>5.603192722237902E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526265841841453</v>
+        <v>0.9526279648136806</v>
       </c>
       <c r="Q5">
-        <v>-0.0001370833693041797</v>
+        <v>4.609303720185732E-10</v>
       </c>
       <c r="R5">
-        <v>130.5451678343911</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998809963927</v>
+        <v>179.9999999995309</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10483,22 +10483,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526302265250912</v>
+        <v>0.9526279647942846</v>
       </c>
       <c r="O6">
-        <v>5.603192722196235E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526265841841453</v>
+        <v>0.9526279648136806</v>
       </c>
       <c r="Q6">
-        <v>-0.0001370833693048438</v>
+        <v>4.609315836009887E-10</v>
       </c>
       <c r="R6">
-        <v>130.545167833893</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9998809963927</v>
+        <v>179.9999999995309</v>
       </c>
     </row>
   </sheetData>
